--- a/SpitFireIssue_Matrix_SUMMARY09-Sep.xlsx
+++ b/SpitFireIssue_Matrix_SUMMARY09-Sep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="6900" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="6900" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -1161,7 +1161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1221,8 +1221,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1262,6 +1269,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,7 +1393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1654,14 +1673,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1685,6 +1698,95 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2140,21 +2242,21 @@
   </sheetPr>
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="114" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" style="114" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75" style="124" customWidth="1"/>
+    <col min="3" max="3" width="75" style="122" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="114" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="114" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="126" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="123" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="124" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="123" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="123" customWidth="1"/>
     <col min="10" max="10" width="55.5703125" style="114" customWidth="1"/>
     <col min="11" max="11" width="30.7109375" style="114" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="114"/>
@@ -2164,7 +2266,7 @@
       <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="125" t="s">
         <v>291</v>
       </c>
       <c r="C1" s="109" t="s">
@@ -2195,470 +2297,470 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="2" spans="1:11" s="133" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="126">
+        <v>6</v>
+      </c>
+      <c r="B2" s="127" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="127" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="126" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="128">
+        <v>42619</v>
+      </c>
+      <c r="F2" s="127" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="129"/>
+      <c r="H2" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" s="130" t="s">
+        <v>322</v>
+      </c>
+      <c r="J2" s="131" t="s">
+        <v>279</v>
+      </c>
+      <c r="K2" s="132"/>
+    </row>
+    <row r="3" spans="1:11" s="133" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="134">
+        <v>7</v>
+      </c>
+      <c r="B3" s="127" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="127" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="126" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="128">
+        <v>42619</v>
+      </c>
+      <c r="F3" s="127" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" s="135"/>
+      <c r="H3" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="130" t="s">
+        <v>322</v>
+      </c>
+      <c r="J3" s="131" t="s">
+        <v>280</v>
+      </c>
+      <c r="K3" s="136"/>
+    </row>
+    <row r="4" spans="1:11" s="133" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="126">
+        <v>9</v>
+      </c>
+      <c r="B4" s="127" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="127" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="126" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="128">
+        <v>42619</v>
+      </c>
+      <c r="F4" s="127" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" s="129"/>
+      <c r="H4" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="I4" s="130" t="s">
+        <v>322</v>
+      </c>
+      <c r="J4" s="131" t="s">
+        <v>282</v>
+      </c>
+      <c r="K4" s="132"/>
+    </row>
+    <row r="5" spans="1:11" s="133" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="137">
+        <v>12</v>
+      </c>
+      <c r="B5" s="127" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="127" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="126" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="128">
+        <v>42619</v>
+      </c>
+      <c r="F5" s="127" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" s="138"/>
+      <c r="H5" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="130" t="s">
+        <v>322</v>
+      </c>
+      <c r="J5" s="131" t="s">
+        <v>285</v>
+      </c>
+      <c r="K5" s="139"/>
+    </row>
+    <row r="6" spans="1:11" s="133" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="126">
+        <v>15</v>
+      </c>
+      <c r="B6" s="127" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="127" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="126" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="128">
+        <v>42619</v>
+      </c>
+      <c r="F6" s="127" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" s="127"/>
+      <c r="H6" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="130" t="s">
+        <v>322</v>
+      </c>
+      <c r="J6" s="131" t="s">
+        <v>288</v>
+      </c>
+      <c r="K6" s="132"/>
+    </row>
+    <row r="7" spans="1:11" s="164" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="157">
+        <v>8</v>
+      </c>
+      <c r="B7" s="158" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="158" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" s="157" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="159">
+        <v>42619</v>
+      </c>
+      <c r="F7" s="158" t="s">
+        <v>275</v>
+      </c>
+      <c r="G7" s="160"/>
+      <c r="H7" s="161" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="161" t="s">
+        <v>322</v>
+      </c>
+      <c r="J7" s="162" t="s">
+        <v>281</v>
+      </c>
+      <c r="K7" s="163"/>
+    </row>
+    <row r="8" spans="1:11" s="164" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="157">
+        <v>11</v>
+      </c>
+      <c r="B8" s="158" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="158" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="157" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="159">
+        <v>42619</v>
+      </c>
+      <c r="F8" s="158" t="s">
+        <v>275</v>
+      </c>
+      <c r="G8" s="158"/>
+      <c r="H8" s="161" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="161" t="s">
+        <v>322</v>
+      </c>
+      <c r="J8" s="162" t="s">
+        <v>284</v>
+      </c>
+      <c r="K8" s="163"/>
+    </row>
+    <row r="9" spans="1:11" s="164" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="157">
+        <v>14</v>
+      </c>
+      <c r="B9" s="158" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="158" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" s="157" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="159">
+        <v>42619</v>
+      </c>
+      <c r="F9" s="158" t="s">
+        <v>275</v>
+      </c>
+      <c r="G9" s="160"/>
+      <c r="H9" s="161" t="s">
+        <v>198</v>
+      </c>
+      <c r="I9" s="161" t="s">
+        <v>322</v>
+      </c>
+      <c r="J9" s="162" t="s">
+        <v>287</v>
+      </c>
+      <c r="K9" s="163"/>
+    </row>
+    <row r="10" spans="1:11" s="146" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="140">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B10" s="141" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C10" s="141" t="s">
         <v>295</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D10" s="142" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E10" s="143">
         <v>42619</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F10" s="141" t="s">
         <v>273</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="115" t="s">
+      <c r="G10" s="144"/>
+      <c r="H10" s="145" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="115" t="s">
+      <c r="I10" s="145" t="s">
         <v>322</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J10" s="146" t="s">
         <v>296</v>
       </c>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="66">
+      <c r="K10" s="147"/>
+    </row>
+    <row r="11" spans="1:11" s="146" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="142">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B11" s="141" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C11" s="141" t="s">
         <v>297</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D11" s="142" t="s">
         <v>272</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E11" s="143">
         <v>42619</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F11" s="141" t="s">
         <v>273</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="115" t="s">
+      <c r="G11" s="148"/>
+      <c r="H11" s="145" t="s">
         <v>198</v>
       </c>
-      <c r="I3" s="115" t="s">
+      <c r="I11" s="145" t="s">
         <v>322</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J11" s="149" t="s">
         <v>298</v>
       </c>
-      <c r="K3" s="67"/>
-    </row>
-    <row r="4" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="K11" s="150"/>
+    </row>
+    <row r="12" spans="1:11" s="146" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="142">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B12" s="141" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C12" s="141" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D12" s="142" t="s">
         <v>272</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E12" s="143">
         <v>42619</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F12" s="141" t="s">
         <v>273</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="115" t="s">
+      <c r="G12" s="151"/>
+      <c r="H12" s="145" t="s">
         <v>198</v>
       </c>
-      <c r="I4" s="115" t="s">
+      <c r="I12" s="145" t="s">
         <v>322</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J12" s="149" t="s">
         <v>276</v>
       </c>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53">
+      <c r="K12" s="150"/>
+    </row>
+    <row r="13" spans="1:11" s="146" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="142">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B13" s="141" t="s">
         <v>292</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C13" s="141" t="s">
         <v>300</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D13" s="142" t="s">
         <v>272</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E13" s="143">
         <v>42619</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F13" s="141" t="s">
         <v>273</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="115" t="s">
+      <c r="G13" s="151"/>
+      <c r="H13" s="145" t="s">
         <v>198</v>
       </c>
-      <c r="I5" s="115" t="s">
+      <c r="I13" s="145" t="s">
         <v>322</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J13" s="149" t="s">
         <v>277</v>
       </c>
-      <c r="K5" s="35"/>
-    </row>
-    <row r="6" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="K13" s="150"/>
+    </row>
+    <row r="14" spans="1:11" s="146" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="152">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B14" s="141" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C14" s="141" t="s">
         <v>301</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D14" s="142" t="s">
         <v>272</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E14" s="143">
         <v>42619</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F14" s="141" t="s">
         <v>273</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="115" t="s">
+      <c r="G14" s="153"/>
+      <c r="H14" s="145" t="s">
         <v>198</v>
       </c>
-      <c r="I6" s="115" t="s">
+      <c r="I14" s="145" t="s">
         <v>322</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J14" s="149" t="s">
         <v>278</v>
       </c>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>302</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="K14" s="154"/>
+    </row>
+    <row r="15" spans="1:11" s="146" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="142">
+        <v>10</v>
+      </c>
+      <c r="B15" s="141" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="141" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15" s="142" t="s">
         <v>272</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E15" s="143">
         <v>42619</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="115" t="s">
+      <c r="F15" s="141" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15" s="141"/>
+      <c r="H15" s="145" t="s">
         <v>198</v>
       </c>
-      <c r="I7" s="115" t="s">
+      <c r="I15" s="145" t="s">
         <v>322</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>303</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="J15" s="149" t="s">
+        <v>283</v>
+      </c>
+      <c r="K15" s="150"/>
+    </row>
+    <row r="16" spans="1:11" s="146" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="155">
+        <v>13</v>
+      </c>
+      <c r="B16" s="141" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" s="141" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="142" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E16" s="143">
         <v>42619</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="115" t="s">
+      <c r="F16" s="141" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" s="156"/>
+      <c r="H16" s="145" t="s">
         <v>198</v>
       </c>
-      <c r="I8" s="115" t="s">
+      <c r="I16" s="145" t="s">
         <v>322</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>304</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E9" s="10">
-        <v>42619</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="I9" s="115" t="s">
-        <v>322</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66">
-        <v>9</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="C10" s="88" t="s">
-        <v>305</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E10" s="10">
-        <v>42619</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="I10" s="115" t="s">
-        <v>322</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E11" s="10">
-        <v>42619</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="I11" s="115" t="s">
-        <v>322</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="C12" s="88" t="s">
-        <v>307</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="10">
-        <v>42619</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="I12" s="115" t="s">
-        <v>322</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="C13" s="88" t="s">
-        <v>308</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E13" s="10">
-        <v>42619</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="I13" s="115" t="s">
-        <v>322</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53">
-        <v>13</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="C14" s="88" t="s">
-        <v>309</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E14" s="10">
-        <v>42619</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="I14" s="115" t="s">
-        <v>322</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="J16" s="149" t="s">
         <v>286</v>
       </c>
-      <c r="K14" s="54"/>
-    </row>
-    <row r="15" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="C15" s="88" t="s">
-        <v>310</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E15" s="10">
-        <v>42619</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="I15" s="115" t="s">
-        <v>322</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="116">
-        <v>15</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="C16" s="88" t="s">
-        <v>311</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="10">
-        <v>42619</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" s="118"/>
-      <c r="H16" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="I16" s="115" t="s">
-        <v>322</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="K16" s="35"/>
+      <c r="K16" s="147"/>
     </row>
     <row r="17" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
@@ -2736,18 +2838,18 @@
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="116">
+      <c r="A22" s="115">
         <v>21</v>
       </c>
-      <c r="B22" s="116"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="87"/>
-      <c r="G22" s="119"/>
+      <c r="G22" s="117"/>
       <c r="H22" s="87"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="120"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
       <c r="K22" s="35"/>
     </row>
     <row r="23" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2766,19 +2868,19 @@
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="116">
+      <c r="A24" s="115">
         <v>23</v>
       </c>
-      <c r="B24" s="116"/>
+      <c r="B24" s="115"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="87"/>
-      <c r="G24" s="119"/>
+      <c r="G24" s="117"/>
       <c r="H24" s="87"/>
-      <c r="I24" s="119"/>
+      <c r="I24" s="117"/>
       <c r="J24" s="35"/>
-      <c r="K24" s="116"/>
+      <c r="K24" s="115"/>
     </row>
     <row r="25" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -2804,9 +2906,9 @@
       <c r="D26" s="66"/>
       <c r="E26" s="68"/>
       <c r="F26" s="69"/>
-      <c r="G26" s="121"/>
+      <c r="G26" s="119"/>
       <c r="H26" s="69"/>
-      <c r="I26" s="121"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="67"/>
       <c r="K26" s="66"/>
     </row>
@@ -2834,7 +2936,7 @@
       <c r="D28" s="53"/>
       <c r="E28" s="55"/>
       <c r="F28" s="56"/>
-      <c r="G28" s="122"/>
+      <c r="G28" s="120"/>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
       <c r="J28" s="54"/>
@@ -2980,7 +3082,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9"/>
-      <c r="C38" s="123"/>
+      <c r="C38" s="121"/>
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
       <c r="F38" s="24"/>
@@ -2991,12 +3093,16 @@
       <c r="K38" s="9"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F47" s="125" t="s">
+      <c r="F47" s="123" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J36"/>
+  <autoFilter ref="A1:J36">
+    <sortState ref="A2:J38">
+      <sortCondition ref="F1:F36"/>
+    </sortState>
+  </autoFilter>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F24">
       <formula1>#REF!</formula1>
@@ -9615,7 +9721,7 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -12323,6 +12429,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E796B56F26F3F046A774A1A26F10F1B7" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a0e0dcb955cc409ed10284df94aec1d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b3359da-ac31-4227-b11c-e1080e4cb64f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c1bf6ec76cd05c4a127799c5cece1b7" ns2:_="">
     <xsd:import namespace="4b3359da-ac31-4227-b11c-e1080e4cb64f"/>
@@ -12470,22 +12591,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A81E8569-52CE-4BA0-9327-BC6221021B5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14FBBF29-FC69-45C7-95F2-B862D1EF338D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4b3359da-ac31-4227-b11c-e1080e4cb64f"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D437E40-4081-4631-BE98-F56047A35624}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12501,28 +12631,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14FBBF29-FC69-45C7-95F2-B862D1EF338D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4b3359da-ac31-4227-b11c-e1080e4cb64f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A81E8569-52CE-4BA0-9327-BC6221021B5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>